--- a/biology/Zoologie/Épizoaire/Épizoaire.xlsx
+++ b/biology/Zoologie/Épizoaire/Épizoaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pizoaire</t>
+          <t>Épizoaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pizoaire</t>
+          <t>Épizoaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce type de relation est fréquemment observé sur la peau des grands cétacés (baleines, cachalots…), qui abrite divers crustacés (cirripèdes, copépodes, balanes) ou encore les poux des baleines. Souvent non pathogènes, ils peuvent cependant ouvrir une voie d'infection en se fixant dans la chair voire causer des lésions à la denture ou à la mâchoire pour les cas d'épizoïsme buccal[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce type de relation est fréquemment observé sur la peau des grands cétacés (baleines, cachalots…), qui abrite divers crustacés (cirripèdes, copépodes, balanes) ou encore les poux des baleines. Souvent non pathogènes, ils peuvent cependant ouvrir une voie d'infection en se fixant dans la chair voire causer des lésions à la denture ou à la mâchoire pour les cas d'épizoïsme buccal.
 </t>
         </is>
       </c>
